--- a/biology/Médecine/Néphrostomie/Néphrostomie.xlsx
+++ b/biology/Médecine/Néphrostomie/Néphrostomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9phrostomie</t>
+          <t>Néphrostomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La néphrostomie (du grec ancien νεφρός (nefrós), rein, et στόμα (stoma), bouche) consiste à mettre en dérivation, temporairement ou définitivement, les cavités des reins avec l’extérieur, au niveau de la peau, au moyen d’une sonde ou d’un cathéter traversant le tissu rénal et sortant au niveau de la peau, en regard du rein.
 Lorsque le rein fonctionne normalement, l’urine s’écoule dans la vessie par un canal étroit, l’uretère. Si un obstacle obstrue ce canal, le rein risque d’être endommagé. La néphrostomie permet de dériver les urines sécrétées par le rein. Différents obstacles peuvent être en cause :
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9phrostomie</t>
+          <t>Néphrostomie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Technique opératoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sonde de néphrostomie est placée dans les cavités rénales par ponction à travers la peau et la paroi lombaire, sous contrôle radioscopique et échographique. La néphrostomie est réalisée sous anesthésie locale ou générale, le patient étant placé sur le ventre.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9phrostomie</t>
+          <t>Néphrostomie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Suites habituelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">les douleurs sont minimes.
 les urines recueillies par la sonde peuvent être sanglantes (surtout en cas de traitement anticoagulant).
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9phrostomie</t>
+          <t>Néphrostomie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Risques et complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les complications directement en relation avec l’intervention sont rares, mais possibles :
 Lors de la mise en place de la sonde de néphrostomie :
